--- a/public/gastos_fijos/general.xlsx
+++ b/public/gastos_fijos/general.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D73D9F8-68E0-49BB-A645-61306602462D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BDFE2C-F0EB-4062-B3A2-D6408DA9CEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Puc" sheetId="3" r:id="rId1"/>
-    <sheet name="gastos de funcionamiento" sheetId="16" r:id="rId2"/>
-    <sheet name="vehiculos " sheetId="15" r:id="rId3"/>
-    <sheet name="viaticos " sheetId="14" r:id="rId4"/>
-    <sheet name="servicios " sheetId="13" r:id="rId5"/>
-    <sheet name="seguros " sheetId="12" r:id="rId6"/>
-    <sheet name="honorarios contable y asesorias" sheetId="11" r:id="rId7"/>
-    <sheet name="materiales y repuestos radios " sheetId="10" r:id="rId8"/>
-    <sheet name="caja general" sheetId="9" r:id="rId9"/>
-    <sheet name="gastos medicos y droga " sheetId="8" r:id="rId10"/>
-    <sheet name="dotacion" sheetId="7" r:id="rId11"/>
-    <sheet name="mantenimientos de vehiculos " sheetId="6" r:id="rId12"/>
-    <sheet name="seguro empleados " sheetId="5" r:id="rId13"/>
-    <sheet name="arrendamientos" sheetId="4" r:id="rId14"/>
+    <sheet name="Otros gastos" sheetId="17" r:id="rId2"/>
+    <sheet name="gastos de funcionamiento" sheetId="16" r:id="rId3"/>
+    <sheet name="vehiculos " sheetId="15" r:id="rId4"/>
+    <sheet name="viaticos " sheetId="14" r:id="rId5"/>
+    <sheet name="servicios " sheetId="13" r:id="rId6"/>
+    <sheet name="seguros " sheetId="12" r:id="rId7"/>
+    <sheet name="honorarios contable y asesorias" sheetId="11" r:id="rId8"/>
+    <sheet name="materiales y repuestos radios " sheetId="10" r:id="rId9"/>
+    <sheet name="caja general" sheetId="9" r:id="rId10"/>
+    <sheet name="gastos medicos y droga " sheetId="8" r:id="rId11"/>
+    <sheet name="dotacion" sheetId="7" r:id="rId12"/>
+    <sheet name="mantenimientos de vehiculos " sheetId="6" r:id="rId13"/>
+    <sheet name="seguro empleados " sheetId="5" r:id="rId14"/>
+    <sheet name="arrendamientos" sheetId="4" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,7 +51,7 @@
     <author>Microsoft</author>
   </authors>
   <commentList>
-    <comment ref="B158" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B164" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D170" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="D176" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="199">
   <si>
     <t>Otros</t>
   </si>
@@ -730,6 +728,24 @@
   </si>
   <si>
     <t>llantas tendido</t>
+  </si>
+  <si>
+    <t>Donaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundacion alicia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundacion de perritos ancianos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundacion don alejo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayudas familia don oscar </t>
+  </si>
+  <si>
+    <t>utiles de aseo y cafeteria</t>
   </si>
 </sst>
 </file>
@@ -742,7 +758,7 @@
     <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +810,24 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -821,7 +855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -909,6 +943,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -916,7 +976,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1019,9 +1079,6 @@
     <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1115,6 +1172,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1398,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView showGridLines="0" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1437,24 +1511,24 @@
         <v>559196</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="53" t="s">
         <v>157</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="59">
+      <c r="D3" s="105">
         <v>232568</v>
       </c>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="53" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="59">
+      <c r="D4" s="105">
         <v>326628</v>
       </c>
     </row>
@@ -1588,33 +1662,33 @@
         <v>3729222.888888889</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="53" t="s">
         <v>153</v>
       </c>
       <c r="C17" s="53"/>
-      <c r="D17" s="59">
+      <c r="D17" s="105">
         <v>1522834</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="53" t="s">
         <v>171</v>
       </c>
       <c r="C18" s="53"/>
-      <c r="D18" s="59">
+      <c r="D18" s="105">
         <v>2150000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="53" t="s">
         <v>189</v>
       </c>
       <c r="C19" s="53"/>
-      <c r="D19" s="59">
+      <c r="D19" s="105">
         <f>1015000/18</f>
         <v>56388.888888888891</v>
       </c>
@@ -1854,7 +1928,7 @@
       <c r="B42" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="86" t="s">
         <v>156</v>
       </c>
       <c r="D42" s="54">
@@ -1866,7 +1940,7 @@
       <c r="B43" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="89"/>
+      <c r="C43" s="86"/>
       <c r="D43" s="54">
         <v>124491.66666666667</v>
       </c>
@@ -1876,7 +1950,7 @@
       <c r="B44" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="89"/>
+      <c r="C44" s="86"/>
       <c r="D44" s="54">
         <v>72658.333333333328</v>
       </c>
@@ -1886,7 +1960,7 @@
       <c r="B45" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="89"/>
+      <c r="C45" s="86"/>
       <c r="D45" s="54">
         <v>98466.666666666672</v>
       </c>
@@ -1896,7 +1970,7 @@
       <c r="B46" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="89"/>
+      <c r="C46" s="86"/>
       <c r="D46" s="54">
         <v>68191.666666666672</v>
       </c>
@@ -1906,7 +1980,7 @@
       <c r="B47" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="89"/>
+      <c r="C47" s="86"/>
       <c r="D47" s="54">
         <v>60858.333333333336</v>
       </c>
@@ -1916,7 +1990,7 @@
       <c r="B48" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="89"/>
+      <c r="C48" s="86"/>
       <c r="D48" s="54">
         <v>85225</v>
       </c>
@@ -1926,7 +2000,7 @@
       <c r="B49" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="89"/>
+      <c r="C49" s="86"/>
       <c r="D49" s="54">
         <v>60858.333333333336</v>
       </c>
@@ -1936,7 +2010,7 @@
       <c r="B50" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="89"/>
+      <c r="C50" s="86"/>
       <c r="D50" s="54">
         <v>60858.333333333336</v>
       </c>
@@ -1946,7 +2020,7 @@
       <c r="B51" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="89" t="s">
+      <c r="C51" s="86" t="s">
         <v>166</v>
       </c>
       <c r="D51" s="54">
@@ -1958,7 +2032,7 @@
       <c r="B52" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="89"/>
+      <c r="C52" s="86"/>
       <c r="D52" s="54">
         <v>60267.75</v>
       </c>
@@ -1968,7 +2042,7 @@
       <c r="B53" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="89"/>
+      <c r="C53" s="86"/>
       <c r="D53" s="54">
         <v>11365.75</v>
       </c>
@@ -1978,7 +2052,7 @@
       <c r="B54" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="89"/>
+      <c r="C54" s="86"/>
       <c r="D54" s="54">
         <v>89987.333333333328</v>
       </c>
@@ -1988,7 +2062,7 @@
       <c r="B55" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="89"/>
+      <c r="C55" s="86"/>
       <c r="D55" s="54">
         <v>41361.5</v>
       </c>
@@ -1998,7 +2072,7 @@
       <c r="B56" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="89"/>
+      <c r="C56" s="86"/>
       <c r="D56" s="54">
         <v>56993.833333333336</v>
       </c>
@@ -2008,7 +2082,7 @@
       <c r="B57" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="89"/>
+      <c r="C57" s="86"/>
       <c r="D57" s="54">
         <v>29750</v>
       </c>
@@ -2026,83 +2100,83 @@
         <v>3116611.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="53"/>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="53" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="53"/>
-      <c r="D59" s="60">
+      <c r="D59" s="54">
         <v>551934.16666666663</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="53"/>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="53" t="s">
         <v>146</v>
       </c>
       <c r="C60" s="53"/>
-      <c r="D60" s="60">
+      <c r="D60" s="54">
         <v>339935</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="53"/>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="53" t="s">
         <v>147</v>
       </c>
       <c r="C61" s="53"/>
-      <c r="D61" s="60">
+      <c r="D61" s="54">
         <v>389008.75</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="53" t="s">
         <v>148</v>
       </c>
       <c r="C62" s="53"/>
-      <c r="D62" s="60">
+      <c r="D62" s="54">
         <v>399785.41666666669</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="53" t="s">
         <v>149</v>
       </c>
       <c r="C63" s="53"/>
-      <c r="D63" s="60">
+      <c r="D63" s="54">
         <v>331676.83333333331</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="53" t="s">
         <v>150</v>
       </c>
       <c r="C64" s="53"/>
-      <c r="D64" s="60">
+      <c r="D64" s="54">
         <v>575714.16666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="53"/>
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="53" t="s">
         <v>151</v>
       </c>
       <c r="C65" s="53"/>
-      <c r="D65" s="60">
+      <c r="D65" s="54">
         <v>439485.83333333331</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="53"/>
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="53" t="s">
         <v>152</v>
       </c>
       <c r="C66" s="53"/>
-      <c r="D66" s="60">
+      <c r="D66" s="54">
         <v>89071.333333333328</v>
       </c>
     </row>
@@ -2310,7 +2384,7 @@
       <c r="C82" s="24">
         <v>12782577</v>
       </c>
-      <c r="D82" s="61">
+      <c r="D82" s="58">
         <v>708097</v>
       </c>
       <c r="G82" s="16"/>
@@ -2320,11 +2394,11 @@
       <c r="A83" s="22">
         <v>51353501</v>
       </c>
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="59" t="s">
         <v>40</v>
       </c>
       <c r="C83" s="22"/>
-      <c r="D83" s="61">
+      <c r="D83" s="58">
         <f>SUM(D84:D103)</f>
         <v>693069</v>
       </c>
@@ -2336,10 +2410,10 @@
       <c r="B84" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C84" s="86" t="s">
+      <c r="C84" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="D84" s="87">
+      <c r="D84" s="84">
         <v>500498</v>
       </c>
       <c r="G84" s="16"/>
@@ -2350,8 +2424,8 @@
       <c r="B85" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C85" s="86"/>
-      <c r="D85" s="87"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="84"/>
       <c r="G85" s="16"/>
       <c r="H85" s="21"/>
     </row>
@@ -2360,8 +2434,8 @@
       <c r="B86" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="86"/>
-      <c r="D86" s="87"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="84"/>
       <c r="G86" s="16"/>
       <c r="H86" s="21"/>
     </row>
@@ -2370,8 +2444,8 @@
       <c r="B87" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="86"/>
-      <c r="D87" s="87"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="84"/>
       <c r="G87" s="16"/>
       <c r="H87" s="21"/>
     </row>
@@ -2380,8 +2454,8 @@
       <c r="B88" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C88" s="86"/>
-      <c r="D88" s="87"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="84"/>
       <c r="G88" s="16"/>
       <c r="H88" s="21"/>
     </row>
@@ -2390,8 +2464,8 @@
       <c r="B89" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="86"/>
-      <c r="D89" s="87"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="84"/>
       <c r="G89" s="16"/>
       <c r="H89" s="21"/>
     </row>
@@ -2400,8 +2474,8 @@
       <c r="B90" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="86"/>
-      <c r="D90" s="87"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="84"/>
       <c r="G90" s="16"/>
       <c r="H90" s="21"/>
     </row>
@@ -2410,8 +2484,8 @@
       <c r="B91" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="86"/>
-      <c r="D91" s="87"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="84"/>
       <c r="G91" s="16"/>
       <c r="H91" s="21"/>
     </row>
@@ -2420,8 +2494,8 @@
       <c r="B92" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C92" s="86"/>
-      <c r="D92" s="87"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="84"/>
       <c r="G92" s="16"/>
       <c r="H92" s="21"/>
     </row>
@@ -2430,8 +2504,8 @@
       <c r="B93" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="86"/>
-      <c r="D93" s="87"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="84"/>
       <c r="G93" s="16"/>
       <c r="H93" s="21"/>
     </row>
@@ -2443,7 +2517,7 @@
       <c r="C94" s="24">
         <v>5432528</v>
       </c>
-      <c r="D94" s="61">
+      <c r="D94" s="58">
         <v>27351</v>
       </c>
       <c r="G94" s="16"/>
@@ -2454,10 +2528,10 @@
       <c r="B95" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C95" s="63">
+      <c r="C95" s="60">
         <v>19130986</v>
       </c>
-      <c r="D95" s="61">
+      <c r="D95" s="58">
         <v>83080</v>
       </c>
       <c r="G95" s="16"/>
@@ -2468,10 +2542,10 @@
       <c r="B96" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="D96" s="87">
+      <c r="D96" s="84">
         <v>82140</v>
       </c>
       <c r="G96" s="16"/>
@@ -2482,8 +2556,8 @@
       <c r="B97" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C97" s="86"/>
-      <c r="D97" s="88"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="85"/>
       <c r="G97" s="16"/>
       <c r="H97" s="21"/>
     </row>
@@ -2492,8 +2566,8 @@
       <c r="B98" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C98" s="86"/>
-      <c r="D98" s="88"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="85"/>
       <c r="G98" s="16"/>
       <c r="H98" s="21"/>
     </row>
@@ -2502,8 +2576,8 @@
       <c r="B99" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C99" s="86"/>
-      <c r="D99" s="88"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="85"/>
       <c r="G99" s="16"/>
       <c r="H99" s="21"/>
     </row>
@@ -2512,8 +2586,8 @@
       <c r="B100" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="86"/>
-      <c r="D100" s="88"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="85"/>
       <c r="G100" s="16"/>
       <c r="H100" s="21"/>
     </row>
@@ -2522,8 +2596,8 @@
       <c r="B101" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C101" s="86"/>
-      <c r="D101" s="88"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="85"/>
       <c r="G101" s="16"/>
       <c r="H101" s="21"/>
     </row>
@@ -2532,18 +2606,18 @@
       <c r="B102" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C102" s="86"/>
-      <c r="D102" s="88"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="85"/>
       <c r="G102" s="16"/>
       <c r="H102" s="21"/>
     </row>
     <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22"/>
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C103" s="86"/>
-      <c r="D103" s="88"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="85"/>
       <c r="G103" s="16"/>
       <c r="H103" s="21"/>
     </row>
@@ -2554,8 +2628,8 @@
       <c r="B104" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C104" s="65"/>
-      <c r="D104" s="66">
+      <c r="C104" s="62"/>
+      <c r="D104" s="63">
         <f>SUM(D105:D106)</f>
         <v>374470</v>
       </c>
@@ -2570,7 +2644,7 @@
       <c r="C105" s="24">
         <v>18794045</v>
       </c>
-      <c r="D105" s="67">
+      <c r="D105" s="64">
         <v>211260</v>
       </c>
       <c r="G105" s="16"/>
@@ -2584,7 +2658,7 @@
       <c r="C106" s="24">
         <v>19150406</v>
       </c>
-      <c r="D106" s="61">
+      <c r="D106" s="58">
         <v>163210</v>
       </c>
       <c r="G106" s="16"/>
@@ -2731,464 +2805,438 @@
       <c r="B121" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D121" s="32">
+        <f>SUM(D122)</f>
+        <v>291666.66666666669</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>51953001</v>
-      </c>
       <c r="B122" s="1" t="s">
-        <v>19</v>
+        <v>198</v>
+      </c>
+      <c r="D122" s="32">
+        <f>3500000/12</f>
+        <v>291666.66666666669</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
+        <v>51953001</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>51956001</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="53">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="53">
         <v>51956501</v>
       </c>
-      <c r="B124" s="53" t="s">
+      <c r="B125" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C124" s="53"/>
-      <c r="D124" s="54">
+      <c r="C125" s="53"/>
+      <c r="D125" s="54">
         <v>373103</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>52059597</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>53051501</v>
+        <v>52059597</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
+        <v>53051501</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
         <v>53152501</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+    <row r="129" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="102">
+        <v>53952501</v>
+      </c>
+      <c r="B129" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="97">
+        <f>SUM(D130:D133)</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D130" s="104">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D131" s="104">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D132" s="104">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D133" s="104">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>61350502</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="53">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="53">
         <v>61351001</v>
       </c>
-      <c r="B129" s="53" t="s">
+      <c r="B135" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C129" s="53"/>
-      <c r="D129" s="54">
+      <c r="C135" s="53"/>
+      <c r="D135" s="54">
         <v>674742</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="53">
+    <row r="136" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="53">
         <v>61351002</v>
       </c>
-      <c r="B130" s="53" t="s">
+      <c r="B136" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C130" s="53"/>
-      <c r="D130" s="54">
-        <f>+D131+D135</f>
+      <c r="C136" s="53"/>
+      <c r="D136" s="54">
+        <f>+D137+D141</f>
         <v>10929138</v>
       </c>
-      <c r="G130" s="18"/>
-      <c r="H130" s="20"/>
-    </row>
-    <row r="131" spans="1:8" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="53"/>
-      <c r="B131" s="53" t="s">
+      <c r="G136" s="18"/>
+      <c r="H136" s="20"/>
+    </row>
+    <row r="137" spans="1:8" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="53"/>
+      <c r="B137" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="C131" s="53"/>
-      <c r="D131" s="54">
-        <f>SUM(D132:D134)</f>
+      <c r="C137" s="53"/>
+      <c r="D137" s="54">
+        <f>SUM(D138:D140)</f>
         <v>8445742</v>
       </c>
-      <c r="G131" s="18"/>
-      <c r="H131" s="20"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
-      <c r="B132" s="80" t="s">
+      <c r="G137" s="18"/>
+      <c r="H137" s="20"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="53"/>
+      <c r="B138" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="C132" s="81"/>
-      <c r="D132" s="68">
+      <c r="C138" s="78"/>
+      <c r="D138" s="65">
         <f>1409825*2</f>
         <v>2819650</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
-      <c r="B133" s="82" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="53"/>
+      <c r="B139" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="C133" s="83"/>
-      <c r="D133" s="69">
+      <c r="C139" s="80"/>
+      <c r="D139" s="66">
         <f>1898518*2</f>
         <v>3797036</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="53"/>
-      <c r="B134" s="84" t="s">
+    <row r="140" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="53"/>
+      <c r="B140" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="C134" s="85"/>
-      <c r="D134" s="70">
+      <c r="C140" s="82"/>
+      <c r="D140" s="67">
         <f>914528*2</f>
         <v>1829056</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="53"/>
-      <c r="B135" s="53" t="s">
+    <row r="141" spans="1:8" s="17" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="53"/>
+      <c r="B141" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C135" s="53"/>
-      <c r="D135" s="54">
-        <f>SUM(D136:D139)</f>
+      <c r="C141" s="53"/>
+      <c r="D141" s="54">
+        <f>SUM(D142:D145)</f>
         <v>2483396</v>
       </c>
-      <c r="G135" s="18"/>
-      <c r="H135" s="20"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="53"/>
-      <c r="B136" s="80" t="s">
+      <c r="G141" s="18"/>
+      <c r="H141" s="20"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="53"/>
+      <c r="B142" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="C136" s="81"/>
-      <c r="D136" s="68">
+      <c r="C142" s="78"/>
+      <c r="D142" s="65">
         <v>468608</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="53"/>
-      <c r="B137" s="82" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="53"/>
+      <c r="B143" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="C137" s="83"/>
-      <c r="D137" s="69">
+      <c r="C143" s="80"/>
+      <c r="D143" s="66">
         <v>530722</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="53"/>
-      <c r="B138" s="82" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="53"/>
+      <c r="B144" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="C138" s="83"/>
-      <c r="D138" s="69">
+      <c r="C144" s="80"/>
+      <c r="D144" s="66">
         <v>129478</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="53"/>
-      <c r="B139" s="84" t="s">
+    <row r="145" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="53"/>
+      <c r="B145" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="C139" s="85"/>
-      <c r="D139" s="70">
+      <c r="C145" s="82"/>
+      <c r="D145" s="67">
         <f>400009+954579</f>
         <v>1354588</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="53">
+    <row r="146" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="53">
         <v>61454001</v>
       </c>
-      <c r="B140" s="53" t="s">
+      <c r="B146" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C140" s="53"/>
-      <c r="D140" s="54">
-        <f>+D141+D145</f>
+      <c r="C146" s="53"/>
+      <c r="D146" s="54">
+        <f>+D147+D151</f>
         <v>4674511</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
-      <c r="B141" s="71" t="s">
+    <row r="147" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="53"/>
+      <c r="B147" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="C141" s="72"/>
-      <c r="D141" s="68">
-        <f>SUM(D142:D144)</f>
+      <c r="C147" s="69"/>
+      <c r="D147" s="65">
+        <f>SUM(D148:D150)</f>
         <v>2308791</v>
       </c>
-      <c r="G141" s="18"/>
-      <c r="H141" s="20"/>
-    </row>
-    <row r="142" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="53"/>
-      <c r="B142" s="73" t="s">
+      <c r="G147" s="18"/>
+      <c r="H147" s="20"/>
+    </row>
+    <row r="148" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="53"/>
+      <c r="B148" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="C142" s="22"/>
-      <c r="D142" s="69">
+      <c r="C148" s="22"/>
+      <c r="D148" s="66">
         <v>760353</v>
       </c>
-      <c r="G142" s="18"/>
-      <c r="H142" s="20"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="53"/>
-      <c r="B143" s="73" t="s">
+      <c r="G148" s="18"/>
+      <c r="H148" s="20"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="53"/>
+      <c r="B149" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C143" s="22"/>
-      <c r="D143" s="69">
+      <c r="C149" s="22"/>
+      <c r="D149" s="66">
         <v>1038328</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="53"/>
-      <c r="B144" s="74" t="s">
+    <row r="150" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="53"/>
+      <c r="B150" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="C144" s="75"/>
-      <c r="D144" s="70">
+      <c r="C150" s="72"/>
+      <c r="D150" s="67">
         <v>510110</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="53"/>
-      <c r="B145" s="71" t="s">
+    <row r="151" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="53"/>
+      <c r="B151" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="C145" s="72"/>
-      <c r="D145" s="68">
-        <f>SUM(D146:D149)</f>
+      <c r="C151" s="69"/>
+      <c r="D151" s="65">
+        <f>SUM(D152:D155)</f>
         <v>2365720</v>
       </c>
-      <c r="G145" s="18"/>
-      <c r="H145" s="20"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="53"/>
-      <c r="B146" s="73" t="s">
+      <c r="G151" s="18"/>
+      <c r="H151" s="20"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="53"/>
+      <c r="B152" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="C146" s="22"/>
-      <c r="D146" s="69">
+      <c r="C152" s="22"/>
+      <c r="D152" s="66">
         <v>206999</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="53"/>
-      <c r="B147" s="73" t="s">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="53"/>
+      <c r="B153" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C147" s="22"/>
-      <c r="D147" s="69">
+      <c r="C153" s="22"/>
+      <c r="D153" s="66">
         <v>170000</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="53"/>
-      <c r="B148" s="73" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="53"/>
+      <c r="B154" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C148" s="22"/>
-      <c r="D148" s="69">
+      <c r="C154" s="22"/>
+      <c r="D154" s="66">
         <v>510999</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="53"/>
-      <c r="B149" s="74" t="s">
+    <row r="155" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="53"/>
+      <c r="B155" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="C149" s="75"/>
-      <c r="D149" s="70">
+      <c r="C155" s="72"/>
+      <c r="D155" s="67">
         <v>1477722</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>61559002</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>61800103</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>73050501</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>73353001</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="53">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="53">
         <v>73353502</v>
       </c>
-      <c r="B154" s="53" t="s">
+      <c r="B160" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="C154" s="53"/>
-      <c r="D154" s="54">
+      <c r="C160" s="53"/>
+      <c r="D160" s="54">
         <v>31000</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>73454001</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="53">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="53">
         <v>73512001</v>
       </c>
-      <c r="B156" s="53" t="s">
+      <c r="B162" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C156" s="53"/>
-      <c r="D156" s="54">
-        <f>SUM(D157:D179)</f>
+      <c r="C162" s="53"/>
+      <c r="D162" s="54">
+        <f>SUM(D163:D185)</f>
         <v>8668710.6666666679</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="22"/>
-      <c r="B157" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C157" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D157" s="57">
-        <v>77660</v>
-      </c>
-      <c r="G157" s="16"/>
-      <c r="H157" s="21"/>
-    </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="22"/>
-      <c r="B158" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C158" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D158" s="57">
-        <v>238955</v>
-      </c>
-      <c r="G158" s="16"/>
-      <c r="H158" s="21"/>
-    </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="22"/>
-      <c r="B159" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C159" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D159" s="57">
-        <v>238955</v>
-      </c>
-      <c r="G159" s="16"/>
-      <c r="H159" s="21"/>
-    </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="22"/>
-      <c r="B160" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C160" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D160" s="57">
-        <v>334537</v>
-      </c>
-      <c r="G160" s="16"/>
-      <c r="H160" s="21"/>
-    </row>
-    <row r="161" spans="1:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A161" s="22"/>
-      <c r="B161" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C161" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D161" s="57">
-        <v>274798</v>
-      </c>
-      <c r="G161" s="16"/>
-      <c r="H161" s="21"/>
-    </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="22"/>
-      <c r="B162" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C162" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D162" s="57">
-        <v>382328</v>
-      </c>
-      <c r="G162" s="16"/>
-      <c r="H162" s="21"/>
     </row>
     <row r="163" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="22"/>
       <c r="B163" s="55" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C163" s="56" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D163" s="57">
-        <v>298693</v>
+        <v>77660</v>
       </c>
       <c r="G163" s="16"/>
       <c r="H163" s="21"/>
@@ -3196,27 +3244,27 @@
     <row r="164" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="22"/>
       <c r="B164" s="55" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C164" s="56" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D164" s="57">
-        <v>235776</v>
+        <v>238955</v>
       </c>
       <c r="G164" s="16"/>
       <c r="H164" s="21"/>
     </row>
-    <row r="165" spans="1:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="22"/>
       <c r="B165" s="55" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C165" s="56" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D165" s="57">
-        <v>836341</v>
+        <v>238955</v>
       </c>
       <c r="G165" s="16"/>
       <c r="H165" s="21"/>
@@ -3224,13 +3272,13 @@
     <row r="166" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="22"/>
       <c r="B166" s="55" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C166" s="56" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D166" s="57">
-        <v>800000</v>
+        <v>334537</v>
       </c>
       <c r="G166" s="16"/>
       <c r="H166" s="21"/>
@@ -3238,13 +3286,13 @@
     <row r="167" spans="1:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="22"/>
       <c r="B167" s="55" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C167" s="56" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D167" s="57">
-        <v>740040</v>
+        <v>274798</v>
       </c>
       <c r="G167" s="16"/>
       <c r="H167" s="21"/>
@@ -3252,13 +3300,13 @@
     <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="22"/>
       <c r="B168" s="55" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C168" s="56" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D168" s="57">
-        <v>373296</v>
+        <v>382328</v>
       </c>
       <c r="G168" s="16"/>
       <c r="H168" s="21"/>
@@ -3266,42 +3314,41 @@
     <row r="169" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="22"/>
       <c r="B169" s="55" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C169" s="56" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D169" s="57">
-        <v>250000</v>
+        <v>298693</v>
       </c>
       <c r="G169" s="16"/>
       <c r="H169" s="21"/>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="22"/>
       <c r="B170" s="55" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C170" s="56" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D170" s="57">
-        <f>2300000/3</f>
-        <v>766666.66666666663</v>
+        <v>235776</v>
       </c>
       <c r="G170" s="16"/>
       <c r="H170" s="21"/>
     </row>
-    <row r="171" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="22"/>
       <c r="B171" s="55" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C171" s="56" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D171" s="57">
-        <v>452480</v>
+        <v>836341</v>
       </c>
       <c r="G171" s="16"/>
       <c r="H171" s="21"/>
@@ -3309,41 +3356,41 @@
     <row r="172" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="22"/>
       <c r="B172" s="55" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C172" s="56" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D172" s="57">
-        <v>250000</v>
+        <v>800000</v>
       </c>
       <c r="G172" s="16"/>
       <c r="H172" s="21"/>
     </row>
-    <row r="173" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="22"/>
       <c r="B173" s="55" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C173" s="56" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D173" s="57">
-        <v>500000</v>
+        <v>740040</v>
       </c>
       <c r="G173" s="16"/>
       <c r="H173" s="21"/>
     </row>
-    <row r="174" spans="1:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="22"/>
       <c r="B174" s="55" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C174" s="56" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D174" s="57">
-        <v>285771</v>
+        <v>373296</v>
       </c>
       <c r="G174" s="16"/>
       <c r="H174" s="21"/>
@@ -3351,27 +3398,28 @@
     <row r="175" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="22"/>
       <c r="B175" s="55" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C175" s="56" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D175" s="57">
-        <v>367414</v>
+        <v>250000</v>
       </c>
       <c r="G175" s="16"/>
       <c r="H175" s="21"/>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="22"/>
       <c r="B176" s="55" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C176" s="56" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D176" s="57">
-        <v>250000</v>
+        <f>2300000/3</f>
+        <v>766666.66666666663</v>
       </c>
       <c r="G176" s="16"/>
       <c r="H176" s="21"/>
@@ -3379,13 +3427,13 @@
     <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="22"/>
       <c r="B177" s="55" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C177" s="56" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D177" s="57">
-        <v>265000</v>
+        <v>452480</v>
       </c>
       <c r="G177" s="16"/>
       <c r="H177" s="21"/>
@@ -3393,122 +3441,206 @@
     <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="22"/>
       <c r="B178" s="55" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C178" s="56" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D178" s="57">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="G178" s="16"/>
       <c r="H178" s="21"/>
     </row>
-    <row r="179" spans="1:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="22"/>
       <c r="B179" s="55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C179" s="56" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D179" s="57">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="G179" s="16"/>
       <c r="H179" s="21"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+    <row r="180" spans="1:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A180" s="22"/>
+      <c r="B180" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C180" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D180" s="57">
+        <v>285771</v>
+      </c>
+      <c r="G180" s="16"/>
+      <c r="H180" s="21"/>
+    </row>
+    <row r="181" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="22"/>
+      <c r="B181" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C181" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D181" s="57">
+        <v>367414</v>
+      </c>
+      <c r="G181" s="16"/>
+      <c r="H181" s="21"/>
+    </row>
+    <row r="182" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="22"/>
+      <c r="B182" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C182" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D182" s="57">
+        <v>250000</v>
+      </c>
+      <c r="G182" s="16"/>
+      <c r="H182" s="21"/>
+    </row>
+    <row r="183" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="22"/>
+      <c r="B183" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C183" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D183" s="57">
+        <v>265000</v>
+      </c>
+      <c r="G183" s="16"/>
+      <c r="H183" s="21"/>
+    </row>
+    <row r="184" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="22"/>
+      <c r="B184" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C184" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D184" s="57">
+        <v>200000</v>
+      </c>
+      <c r="G184" s="16"/>
+      <c r="H184" s="21"/>
+    </row>
+    <row r="185" spans="1:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A185" s="22"/>
+      <c r="B185" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C185" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D185" s="57">
+        <v>250000</v>
+      </c>
+      <c r="G185" s="16"/>
+      <c r="H185" s="21"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>73953501</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>74050502</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="53"/>
-      <c r="B182" s="53" t="s">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="53"/>
+      <c r="B188" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C182" s="53"/>
-      <c r="D182" s="54">
-        <f>SUM(D183:D185)</f>
+      <c r="C188" s="53"/>
+      <c r="D188" s="54">
+        <f>SUM(D189:D191)</f>
         <v>10037083.333333332</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="53"/>
-      <c r="B183" s="53" t="s">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="53"/>
+      <c r="B189" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C183" s="53"/>
-      <c r="D183" s="54">
+      <c r="C189" s="53"/>
+      <c r="D189" s="54">
         <f>118026000/12</f>
         <v>9835500</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="53"/>
-      <c r="B184" s="53" t="s">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="53"/>
+      <c r="B190" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C184" s="53"/>
-      <c r="D184" s="54">
+      <c r="C190" s="53"/>
+      <c r="D190" s="54">
         <f>2195000/12</f>
         <v>182916.66666666666</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="53"/>
-      <c r="B185" s="53" t="s">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="53"/>
+      <c r="B191" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C185" s="53"/>
-      <c r="D185" s="54">
+      <c r="C191" s="53"/>
+      <c r="D191" s="54">
         <f>224000/12</f>
         <v>18666.666666666668</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C189" s="78" t="s">
+    <row r="194" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C195" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="D189" s="76">
-        <f>+D2+D12+D16+D21+D29+D32+D35+D38+D41+D58+D67+D71+D83+D104+D110+D115+D116+D119+D124+D129+D130+D140+D154+D156+D182+D7+D23</f>
-        <v>62254408.562222227</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C190" s="79"/>
-      <c r="D190" s="77"/>
+      <c r="D195" s="73">
+        <f>+D2+D12+D16+D21+D29+D32+D35+D38+D41+D58+D67+D71+D83+D104+D110+D115+D116+D119+D125+D135+D136+D146+D160+D162+D188+D7+D23+D121+D129</f>
+        <v>64046075.228888892</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C196" s="76"/>
+      <c r="D196" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="C42:C50"/>
     <mergeCell ref="C51:C57"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
     <mergeCell ref="C84:C93"/>
     <mergeCell ref="D84:D93"/>
     <mergeCell ref="D96:D103"/>
     <mergeCell ref="C96:C103"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3517,6 +3649,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8DA33B-230C-4ED0-B3D1-9F6D793112E6}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
+        <v>11050501</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="33">
+        <f>2341717.84-1478714</f>
+        <v>863003.83999999985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA902B1D-5020-427E-A4DA-7BF8A1BE45F1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3580,7 +3740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08AB6D8-D59D-44F3-8F74-7D555D2781FF}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3633,7 +3793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD3F4AD-E5A9-4B85-8927-47DECB0477E0}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3707,12 +3867,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2B5094-9CA1-480F-B1F3-30534C3E0001}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B1" sqref="B1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3760,11 +3920,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00619A3A-35ED-4F3F-B300-6EDF8DA926A3}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:D28"/>
     </sheetView>
   </sheetViews>
@@ -4118,6 +4278,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E1A864-8253-4E6A-9470-32590E4C77D5}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="98"/>
+    <col min="4" max="4" width="16.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="100">
+        <v>53952501</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="97">
+        <f>SUM(D3:D6)</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="99">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="99">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="99">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="99">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>51952501</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="33">
+        <f>SUM(D8)</f>
+        <v>291666.66666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="32">
+        <f>3500000/12</f>
+        <v>291666.66666666669</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9256E633-40DA-4D84-B8C3-8B218A91B22D}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -4203,11 +4458,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F3786-8BD5-46A1-A1C3-3DBD954E4C32}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4243,10 +4498,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="93"/>
+      <c r="C3" s="90"/>
       <c r="D3" s="44">
         <f>1409825*2</f>
         <v>2819650</v>
@@ -4254,10 +4509,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="95"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="45">
         <f>1898518*2</f>
         <v>3797036</v>
@@ -4265,10 +4520,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="46">
         <f>914528*2</f>
         <v>1829056</v>
@@ -4287,40 +4542,40 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="93"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="44">
         <v>468608</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="45">
         <v>530722</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="95"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="45">
         <v>129478</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="46">
         <f>400009+954579</f>
         <v>1354588</v>
@@ -4445,7 +4700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2CF1D9-DAF1-431D-89F8-78B7CD386897}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4523,12 +4778,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59866288-C319-48C9-A644-552BDA3A3E66}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E38" sqref="E37:E38"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,10 +4999,10 @@
       <c r="B18" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="94">
         <v>500498</v>
       </c>
     </row>
@@ -4756,72 +5011,72 @@
       <c r="B19" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="97"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="97"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -4852,10 +5107,10 @@
       <c r="B30" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="97">
+      <c r="D30" s="94">
         <v>82140</v>
       </c>
     </row>
@@ -4864,56 +5119,56 @@
       <c r="B31" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="98"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="95"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="98"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="95"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="98"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="95"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="98"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="95"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="98"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="95"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="98"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="95"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="98"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="95"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
@@ -4975,11 +5230,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C460D7-78C7-4F8B-B478-81EE6E0C1B7D}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -5007,7 +5262,7 @@
       <c r="B2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="96" t="s">
         <v>156</v>
       </c>
       <c r="D2" s="32">
@@ -5019,7 +5274,7 @@
       <c r="B3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="99"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="32">
         <v>124491.66666666667</v>
       </c>
@@ -5029,7 +5284,7 @@
       <c r="B4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="99"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="32">
         <v>72658.333333333328</v>
       </c>
@@ -5039,7 +5294,7 @@
       <c r="B5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="99"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="32">
         <v>98466.666666666672</v>
       </c>
@@ -5049,7 +5304,7 @@
       <c r="B6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="99"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="32">
         <v>68191.666666666672</v>
       </c>
@@ -5059,7 +5314,7 @@
       <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="99"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="32">
         <v>60858.333333333336</v>
       </c>
@@ -5069,7 +5324,7 @@
       <c r="B8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="32">
         <v>85225</v>
       </c>
@@ -5079,7 +5334,7 @@
       <c r="B9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="99"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="32">
         <v>60858.333333333336</v>
       </c>
@@ -5089,7 +5344,7 @@
       <c r="B10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="99"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="32">
         <v>60858.333333333336</v>
       </c>
@@ -5099,7 +5354,7 @@
       <c r="B11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="96" t="s">
         <v>166</v>
       </c>
       <c r="D11" s="32">
@@ -5111,7 +5366,7 @@
       <c r="B12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="99"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="32">
         <v>60267.75</v>
       </c>
@@ -5121,7 +5376,7 @@
       <c r="B13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="99"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="32">
         <v>11365.75</v>
       </c>
@@ -5131,7 +5386,7 @@
       <c r="B14" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="99"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="32">
         <v>89987.333333333328</v>
       </c>
@@ -5141,7 +5396,7 @@
       <c r="B15" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="99"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="32">
         <v>41361.5</v>
       </c>
@@ -5151,7 +5406,7 @@
       <c r="B16" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="99"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="32">
         <v>56993.833333333336</v>
       </c>
@@ -5161,7 +5416,7 @@
       <c r="B17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="99"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="32">
         <v>29750</v>
       </c>
@@ -5268,7 +5523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43E1E43-7C55-4C6D-A885-B2274A8FE00C}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -5353,7 +5608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12E8961-2A0C-4F94-9D1A-4912CACB6060}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5393,32 +5648,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8DA33B-230C-4ED0-B3D1-9F6D793112E6}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7">
-        <v>11050501</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="33">
-        <f>2341717.84-1478714</f>
-        <v>863003.83999999985</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/gastos_fijos/general.xlsx
+++ b/public/gastos_fijos/general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BDFE2C-F0EB-4062-B3A2-D6408DA9CEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8114AA6-3678-4F08-88B6-4D9FFDC2C296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Puc" sheetId="3" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="201">
   <si>
     <t>Otros</t>
   </si>
@@ -746,6 +746,12 @@
   </si>
   <si>
     <t>utiles de aseo y cafeteria</t>
+  </si>
+  <si>
+    <t>Flota y equipo de transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alquiler trailer </t>
   </si>
 </sst>
 </file>
@@ -976,7 +982,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1104,16 +1110,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,7 +1155,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1172,23 +1195,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1474,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A102" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A111" workbookViewId="0">
       <selection activeCell="A121" sqref="A121:D122"/>
     </sheetView>
   </sheetViews>
@@ -1517,7 +1524,7 @@
         <v>157</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="105">
+      <c r="D3" s="81">
         <v>232568</v>
       </c>
       <c r="H3" s="15"/>
@@ -1528,7 +1535,7 @@
         <v>158</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="105">
+      <c r="D4" s="81">
         <v>326628</v>
       </c>
     </row>
@@ -1668,7 +1675,7 @@
         <v>153</v>
       </c>
       <c r="C17" s="53"/>
-      <c r="D17" s="105">
+      <c r="D17" s="81">
         <v>1522834</v>
       </c>
     </row>
@@ -1678,7 +1685,7 @@
         <v>171</v>
       </c>
       <c r="C18" s="53"/>
-      <c r="D18" s="105">
+      <c r="D18" s="81">
         <v>2150000</v>
       </c>
     </row>
@@ -1688,7 +1695,7 @@
         <v>189</v>
       </c>
       <c r="C19" s="53"/>
-      <c r="D19" s="105">
+      <c r="D19" s="81">
         <f>1015000/18</f>
         <v>56388.888888888891</v>
       </c>
@@ -1928,7 +1935,7 @@
       <c r="B42" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="82" t="s">
         <v>156</v>
       </c>
       <c r="D42" s="54">
@@ -1940,7 +1947,7 @@
       <c r="B43" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="86"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="54">
         <v>124491.66666666667</v>
       </c>
@@ -1950,7 +1957,7 @@
       <c r="B44" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="86"/>
+      <c r="C44" s="82"/>
       <c r="D44" s="54">
         <v>72658.333333333328</v>
       </c>
@@ -1960,7 +1967,7 @@
       <c r="B45" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="86"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="54">
         <v>98466.666666666672</v>
       </c>
@@ -1970,7 +1977,7 @@
       <c r="B46" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="86"/>
+      <c r="C46" s="82"/>
       <c r="D46" s="54">
         <v>68191.666666666672</v>
       </c>
@@ -1980,7 +1987,7 @@
       <c r="B47" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="86"/>
+      <c r="C47" s="82"/>
       <c r="D47" s="54">
         <v>60858.333333333336</v>
       </c>
@@ -1990,7 +1997,7 @@
       <c r="B48" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="86"/>
+      <c r="C48" s="82"/>
       <c r="D48" s="54">
         <v>85225</v>
       </c>
@@ -2000,7 +2007,7 @@
       <c r="B49" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="86"/>
+      <c r="C49" s="82"/>
       <c r="D49" s="54">
         <v>60858.333333333336</v>
       </c>
@@ -2010,7 +2017,7 @@
       <c r="B50" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="86"/>
+      <c r="C50" s="82"/>
       <c r="D50" s="54">
         <v>60858.333333333336</v>
       </c>
@@ -2020,7 +2027,7 @@
       <c r="B51" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="82" t="s">
         <v>166</v>
       </c>
       <c r="D51" s="54">
@@ -2032,7 +2039,7 @@
       <c r="B52" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="86"/>
+      <c r="C52" s="82"/>
       <c r="D52" s="54">
         <v>60267.75</v>
       </c>
@@ -2042,7 +2049,7 @@
       <c r="B53" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="86"/>
+      <c r="C53" s="82"/>
       <c r="D53" s="54">
         <v>11365.75</v>
       </c>
@@ -2052,7 +2059,7 @@
       <c r="B54" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="86"/>
+      <c r="C54" s="82"/>
       <c r="D54" s="54">
         <v>89987.333333333328</v>
       </c>
@@ -2062,7 +2069,7 @@
       <c r="B55" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="86"/>
+      <c r="C55" s="82"/>
       <c r="D55" s="54">
         <v>41361.5</v>
       </c>
@@ -2072,7 +2079,7 @@
       <c r="B56" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="86"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="54">
         <v>56993.833333333336</v>
       </c>
@@ -2082,7 +2089,7 @@
       <c r="B57" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="86"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="54">
         <v>29750</v>
       </c>
@@ -2410,10 +2417,10 @@
       <c r="B84" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C84" s="83" t="s">
+      <c r="C84" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="D84" s="84">
+      <c r="D84" s="90">
         <v>500498</v>
       </c>
       <c r="G84" s="16"/>
@@ -2424,8 +2431,8 @@
       <c r="B85" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C85" s="83"/>
-      <c r="D85" s="84"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="90"/>
       <c r="G85" s="16"/>
       <c r="H85" s="21"/>
     </row>
@@ -2434,8 +2441,8 @@
       <c r="B86" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="83"/>
-      <c r="D86" s="84"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="90"/>
       <c r="G86" s="16"/>
       <c r="H86" s="21"/>
     </row>
@@ -2444,8 +2451,8 @@
       <c r="B87" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="83"/>
-      <c r="D87" s="84"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="90"/>
       <c r="G87" s="16"/>
       <c r="H87" s="21"/>
     </row>
@@ -2454,8 +2461,8 @@
       <c r="B88" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C88" s="83"/>
-      <c r="D88" s="84"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="90"/>
       <c r="G88" s="16"/>
       <c r="H88" s="21"/>
     </row>
@@ -2464,8 +2471,8 @@
       <c r="B89" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="84"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="90"/>
       <c r="G89" s="16"/>
       <c r="H89" s="21"/>
     </row>
@@ -2474,8 +2481,8 @@
       <c r="B90" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="84"/>
+      <c r="C90" s="89"/>
+      <c r="D90" s="90"/>
       <c r="G90" s="16"/>
       <c r="H90" s="21"/>
     </row>
@@ -2484,8 +2491,8 @@
       <c r="B91" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="83"/>
-      <c r="D91" s="84"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="90"/>
       <c r="G91" s="16"/>
       <c r="H91" s="21"/>
     </row>
@@ -2494,8 +2501,8 @@
       <c r="B92" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="84"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="90"/>
       <c r="G92" s="16"/>
       <c r="H92" s="21"/>
     </row>
@@ -2504,8 +2511,8 @@
       <c r="B93" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="83"/>
-      <c r="D93" s="84"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="90"/>
       <c r="G93" s="16"/>
       <c r="H93" s="21"/>
     </row>
@@ -2542,10 +2549,10 @@
       <c r="B96" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C96" s="83" t="s">
+      <c r="C96" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="D96" s="84">
+      <c r="D96" s="90">
         <v>82140</v>
       </c>
       <c r="G96" s="16"/>
@@ -2556,8 +2563,8 @@
       <c r="B97" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C97" s="83"/>
-      <c r="D97" s="85"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="91"/>
       <c r="G97" s="16"/>
       <c r="H97" s="21"/>
     </row>
@@ -2566,8 +2573,8 @@
       <c r="B98" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C98" s="83"/>
-      <c r="D98" s="85"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="91"/>
       <c r="G98" s="16"/>
       <c r="H98" s="21"/>
     </row>
@@ -2576,8 +2583,8 @@
       <c r="B99" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C99" s="83"/>
-      <c r="D99" s="85"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="91"/>
       <c r="G99" s="16"/>
       <c r="H99" s="21"/>
     </row>
@@ -2586,8 +2593,8 @@
       <c r="B100" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="83"/>
-      <c r="D100" s="85"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="91"/>
       <c r="G100" s="16"/>
       <c r="H100" s="21"/>
     </row>
@@ -2596,8 +2603,8 @@
       <c r="B101" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C101" s="83"/>
-      <c r="D101" s="85"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="91"/>
       <c r="G101" s="16"/>
       <c r="H101" s="21"/>
     </row>
@@ -2606,8 +2613,8 @@
       <c r="B102" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C102" s="83"/>
-      <c r="D102" s="85"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="91"/>
       <c r="G102" s="16"/>
       <c r="H102" s="21"/>
     </row>
@@ -2616,8 +2623,8 @@
       <c r="B103" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="85"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="91"/>
       <c r="G103" s="16"/>
       <c r="H103" s="21"/>
     </row>
@@ -2872,14 +2879,14 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="102">
+      <c r="A129" s="78">
         <v>53952501</v>
       </c>
-      <c r="B129" s="103" t="s">
+      <c r="B129" s="79" t="s">
         <v>193</v>
       </c>
       <c r="C129" s="7"/>
-      <c r="D129" s="97">
+      <c r="D129" s="73">
         <f>SUM(D130:D133)</f>
         <v>1500000</v>
       </c>
@@ -2888,7 +2895,7 @@
       <c r="B130" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D130" s="104">
+      <c r="D130" s="80">
         <v>200000</v>
       </c>
     </row>
@@ -2896,7 +2903,7 @@
       <c r="B131" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D131" s="104">
+      <c r="D131" s="80">
         <v>100000</v>
       </c>
     </row>
@@ -2904,7 +2911,7 @@
       <c r="B132" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D132" s="104">
+      <c r="D132" s="80">
         <v>200000</v>
       </c>
     </row>
@@ -2912,7 +2919,7 @@
       <c r="B133" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D133" s="104">
+      <c r="D133" s="80">
         <v>1000000</v>
       </c>
     </row>
@@ -2966,10 +2973,10 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="53"/>
-      <c r="B138" s="77" t="s">
+      <c r="B138" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="C138" s="78"/>
+      <c r="C138" s="84"/>
       <c r="D138" s="65">
         <f>1409825*2</f>
         <v>2819650</v>
@@ -2977,10 +2984,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="53"/>
-      <c r="B139" s="79" t="s">
+      <c r="B139" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="C139" s="80"/>
+      <c r="C139" s="86"/>
       <c r="D139" s="66">
         <f>1898518*2</f>
         <v>3797036</v>
@@ -2988,10 +2995,10 @@
     </row>
     <row r="140" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="53"/>
-      <c r="B140" s="81" t="s">
+      <c r="B140" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="C140" s="82"/>
+      <c r="C140" s="88"/>
       <c r="D140" s="67">
         <f>914528*2</f>
         <v>1829056</v>
@@ -3012,40 +3019,40 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="53"/>
-      <c r="B142" s="77" t="s">
+      <c r="B142" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="C142" s="78"/>
+      <c r="C142" s="84"/>
       <c r="D142" s="65">
         <v>468608</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="53"/>
-      <c r="B143" s="79" t="s">
+      <c r="B143" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="C143" s="80"/>
+      <c r="C143" s="86"/>
       <c r="D143" s="66">
         <v>530722</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="53"/>
-      <c r="B144" s="79" t="s">
+      <c r="B144" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="C144" s="80"/>
+      <c r="C144" s="86"/>
       <c r="D144" s="66">
         <v>129478</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="53"/>
-      <c r="B145" s="81" t="s">
+      <c r="B145" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="C145" s="82"/>
+      <c r="C145" s="88"/>
       <c r="D145" s="67">
         <f>400009+954579</f>
         <v>1354588</v>
@@ -3612,26 +3619,20 @@
     </row>
     <row r="194" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="195" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C195" s="75" t="s">
+      <c r="C195" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="D195" s="73">
+      <c r="D195" s="92">
         <f>+D2+D12+D16+D21+D29+D32+D35+D38+D41+D58+D67+D71+D83+D104+D110+D115+D116+D119+D125+D135+D136+D146+D160+D162+D188+D7+D23+D121+D129</f>
         <v>64046075.228888892</v>
       </c>
     </row>
     <row r="196" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C196" s="76"/>
-      <c r="D196" s="74"/>
+      <c r="C196" s="95"/>
+      <c r="D196" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="C84:C93"/>
     <mergeCell ref="D84:D93"/>
     <mergeCell ref="D96:D103"/>
     <mergeCell ref="C96:C103"/>
@@ -3641,6 +3642,12 @@
     <mergeCell ref="B143:C143"/>
     <mergeCell ref="B144:C144"/>
     <mergeCell ref="B145:C145"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="C84:C93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3924,8 +3931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00619A3A-35ED-4F3F-B300-6EDF8DA926A3}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3959,7 +3966,7 @@
         <v>77660</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>63</v>
@@ -4019,7 +4026,7 @@
         <v>382328</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>73</v>
@@ -4055,7 +4062,7 @@
         <v>836341</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>79</v>
@@ -4116,7 +4123,7 @@
         <v>766666.66666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>89</v>
@@ -4128,7 +4135,7 @@
         <v>452480</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>91</v>
@@ -4164,7 +4171,7 @@
         <v>285771</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>96</v>
@@ -4188,7 +4195,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>99</v>
@@ -4281,64 +4288,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E1A864-8253-4E6A-9470-32590E4C77D5}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="98" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="98" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="98"/>
-    <col min="4" max="4" width="16.28515625" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="98"/>
+    <col min="1" max="1" width="10.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="74"/>
+    <col min="4" max="4" width="16.28515625" style="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="100">
+      <c r="A2" s="76">
         <v>53952501</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="77" t="s">
         <v>193</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="97">
+      <c r="D2" s="73">
         <f>SUM(D3:D6)</f>
         <v>1500000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="74" t="s">
         <v>194</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="99">
+      <c r="D3" s="75">
         <v>200000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="74" t="s">
         <v>195</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="99">
+      <c r="D4" s="75">
         <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="75">
         <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="75">
         <v>1000000</v>
       </c>
     </row>
@@ -4460,16 +4467,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F3786-8BD5-46A1-A1C3-3DBD954E4C32}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4498,10 +4505,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="90"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="44">
         <f>1409825*2</f>
         <v>2819650</v>
@@ -4509,10 +4516,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="92"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="45">
         <f>1898518*2</f>
         <v>3797036</v>
@@ -4520,10 +4527,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="88"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="46">
         <f>914528*2</f>
         <v>1829056</v>
@@ -4542,40 +4549,40 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="90"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="44">
         <v>468608</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="45">
         <v>530722</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="45">
         <v>129478</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="88"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="46">
         <f>400009+954579</f>
         <v>1354588</v>
@@ -4684,6 +4691,26 @@
       <c r="C20" s="31"/>
       <c r="D20" s="46">
         <v>1477722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>15923501</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="33"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="106">
+        <v>1100000</v>
       </c>
     </row>
   </sheetData>
@@ -4697,6 +4724,7 @@
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4999,10 +5027,10 @@
       <c r="B18" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="94">
+      <c r="D18" s="103">
         <v>500498</v>
       </c>
     </row>
@@ -5011,72 +5039,72 @@
       <c r="B19" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -5107,10 +5135,10 @@
       <c r="B30" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="94">
+      <c r="D30" s="103">
         <v>82140</v>
       </c>
     </row>
@@ -5119,56 +5147,56 @@
       <c r="B31" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="95"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="104"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="95"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="104"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="95"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="104"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="95"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="104"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="95"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="104"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="95"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="104"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="95"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="104"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
@@ -5262,7 +5290,7 @@
       <c r="B2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="105" t="s">
         <v>156</v>
       </c>
       <c r="D2" s="32">
@@ -5274,7 +5302,7 @@
       <c r="B3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="96"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="32">
         <v>124491.66666666667</v>
       </c>
@@ -5284,7 +5312,7 @@
       <c r="B4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="96"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="32">
         <v>72658.333333333328</v>
       </c>
@@ -5294,7 +5322,7 @@
       <c r="B5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="96"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="32">
         <v>98466.666666666672</v>
       </c>
@@ -5304,7 +5332,7 @@
       <c r="B6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="96"/>
+      <c r="C6" s="105"/>
       <c r="D6" s="32">
         <v>68191.666666666672</v>
       </c>
@@ -5314,7 +5342,7 @@
       <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="96"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="32">
         <v>60858.333333333336</v>
       </c>
@@ -5324,7 +5352,7 @@
       <c r="B8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="32">
         <v>85225</v>
       </c>
@@ -5334,7 +5362,7 @@
       <c r="B9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="96"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="32">
         <v>60858.333333333336</v>
       </c>
@@ -5344,7 +5372,7 @@
       <c r="B10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="32">
         <v>60858.333333333336</v>
       </c>
@@ -5354,7 +5382,7 @@
       <c r="B11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="105" t="s">
         <v>166</v>
       </c>
       <c r="D11" s="32">
@@ -5366,7 +5394,7 @@
       <c r="B12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="96"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="32">
         <v>60267.75</v>
       </c>
@@ -5376,7 +5404,7 @@
       <c r="B13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="96"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="32">
         <v>11365.75</v>
       </c>
@@ -5386,7 +5414,7 @@
       <c r="B14" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="96"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="32">
         <v>89987.333333333328</v>
       </c>
@@ -5396,7 +5424,7 @@
       <c r="B15" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="96"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="32">
         <v>41361.5</v>
       </c>
@@ -5406,7 +5434,7 @@
       <c r="B16" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="32">
         <v>56993.833333333336</v>
       </c>
@@ -5416,7 +5444,7 @@
       <c r="B17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="96"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="32">
         <v>29750</v>
       </c>
